--- a/file.xlsx
+++ b/file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.sitdykov\Desktop\project\myAppl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.sitdykov\Desktop\project\toarsh-creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -784,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2102,6 +2102,16 @@
         <v>138</v>
       </c>
     </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -787,7 +787,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -787,7 +787,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
